--- a/ResourceFiles/Fabrikam Q1 marketing campaigns.xlsx
+++ b/ResourceFiles/Fabrikam Q1 marketing campaigns.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MS-4004\MS-4004-Empower-workforce-copilot-use-cases.zh-cn\ResourceFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Projects\LeX\FY24\ILT_Course\MSU120732_ILT_May_update\MS-4004_Copilot\10_DTP\zh-CN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA599618-3994-4E89-921A-E4CD394E3B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1C1C33-EDB7-4BEC-A92D-04351B2A23F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -226,18 +226,6 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -251,6 +239,9 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="21" formatCode="d\-mmm"/>
@@ -288,6 +279,15 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -302,17 +302,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{154C6DCB-6958-4899-9C09-8774FB5A4F75}" name="Table1" displayName="Table1" ref="A1:H13" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{154C6DCB-6958-4899-9C09-8774FB5A4F75}" name="Table1" displayName="Table1" ref="A1:H13" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:H13" xr:uid="{154C6DCB-6958-4899-9C09-8774FB5A4F75}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{91A075CA-6A14-47CB-A0E7-88D8D4438B32}" name="市场活动负责人" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{F1F005D8-1E29-4CDC-A62A-6488761D6B3F}" name="市场活动名称" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{05A95148-2D16-4023-A9CB-D63756879CF7}" name="启动日期" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{79C47BBC-C7A1-4CE2-AE0D-CAD8BBFAD2AC}" name="市场活动类型" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{A696211D-75CE-47A5-BB6F-8D75562B37BB}" name="预算" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{21043E89-C9B0-4157-8A32-0F75EEA8E151}" name="收入" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{66CCB887-FE9E-4C0A-B3B4-C1FD37A3FE68}" name="目标用户总数" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{B7E40D89-5A03-4C2A-9726-D3598E7F3FD5}" name="参与用户" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{91A075CA-6A14-47CB-A0E7-88D8D4438B32}" name="市场活动负责人" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{F1F005D8-1E29-4CDC-A62A-6488761D6B3F}" name="市场活动名称" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{05A95148-2D16-4023-A9CB-D63756879CF7}" name="启动日期" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{79C47BBC-C7A1-4CE2-AE0D-CAD8BBFAD2AC}" name="市场活动类型" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{A696211D-75CE-47A5-BB6F-8D75562B37BB}" name="预算" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{21043E89-C9B0-4157-8A32-0F75EEA8E151}" name="收入" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{66CCB887-FE9E-4C0A-B3B4-C1FD37A3FE68}" name="目标用户总数" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{B7E40D89-5A03-4C2A-9726-D3598E7F3FD5}" name="参与用户" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -641,19 +641,19 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -679,7 +679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -705,7 +705,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -731,7 +731,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -757,7 +757,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -783,7 +783,7 @@
         <v>5418</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -809,7 +809,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -835,7 +835,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -861,7 +861,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -887,7 +887,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -913,7 +913,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -939,7 +939,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -965,7 +965,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -991,7 +991,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E21" t="s">
         <v>27</v>
       </c>
@@ -1006,6 +1006,6 @@
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{87ba5c36-b7cf-4793-bbc2-bd5b3a9f95ca}" enabled="1" method="Privileged" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
 </clbl:labelList>
 </file>
--- a/ResourceFiles/Fabrikam Q1 marketing campaigns.xlsx
+++ b/ResourceFiles/Fabrikam Q1 marketing campaigns.xlsx
@@ -40,6 +40,7 @@
   <si>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Aptos Narrow"/>
@@ -57,12 +58,13 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 市场活动名称</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
+      <t xml:space="preserve">  市场活动名称</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Aptos Narrow"/>
@@ -74,6 +76,7 @@
   <si>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Aptos Narrow"/>
@@ -109,6 +112,7 @@
   <si>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Aptos Narrow"/>
@@ -120,6 +124,7 @@
   <si>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Aptos Narrow"/>
@@ -446,7 +451,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="d\-mmm"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,12 +463,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
     <font>
@@ -701,7 +700,7 @@
   <autoFilter ref="A1:H13"/>
   <tableColumns count="8">
     <tableColumn id="1" name="市场活动负责人" dataDxfId="7"/>
-    <tableColumn id="2" name=" 市场活动名称" dataDxfId="6"/>
+    <tableColumn id="2" name="  市场活动名称" dataDxfId="6"/>
     <tableColumn id="3" name="启动日期" dataDxfId="5"/>
     <tableColumn id="4" name="市场活动类型" dataDxfId="4"/>
     <tableColumn id="5" name="预算" dataDxfId="3"/>
